--- a/DESCRITIVO-ELEMENTOS.xlsx
+++ b/DESCRITIVO-ELEMENTOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clayt\OneDrive\Área de Trabalho\ProjetoX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF8197E-198B-4AE4-A4DD-81169515A64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897E7017-25BA-4407-832D-02F00EEB9D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FA6A1E20-01C2-4241-A63C-B9E796B995D3}"/>
   </bookViews>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>7.21</t>
   </si>
   <si>
-    <t>Descritivo dos Arquivos CSV</t>
-  </si>
-  <si>
     <t>Número do Diagrama</t>
   </si>
   <si>
@@ -54,15 +51,6 @@
     <t>IDK8-1</t>
   </si>
   <si>
-    <t>PIPE-IDK8.1-7.21</t>
-  </si>
-  <si>
-    <t>IDK8.1-7.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pipe based on idelchik edition 8.1, 7.21 diagram </t>
-  </si>
-  <si>
     <t>Invision Flow Elements</t>
   </si>
   <si>
@@ -76,6 +64,45 @@
   </si>
   <si>
     <t>Pipes</t>
+  </si>
+  <si>
+    <t>IDK4.1-2.1</t>
+  </si>
+  <si>
+    <t>IDK4.1-7.21</t>
+  </si>
+  <si>
+    <t>Pipe based on the 2.1 diagram from the 4 edition of the book Handbook of Hydraulic Resistance</t>
+  </si>
+  <si>
+    <t>Symmetrical Merging Tee based on the 7.29 diagram from the 4 edition of the book Handbook of Hydraulic Resistance</t>
+  </si>
+  <si>
+    <t>Symmetrical Dividing Tee based on the 7.29 diagram from the 4 edition of the book Handbook of Hydraulic Resistance</t>
+  </si>
+  <si>
+    <t>Non Symmetrical Dividing Tee based on the 7.21 diagram from the 4 edition of the book Handbook of Hydraulic Resistance</t>
+  </si>
+  <si>
+    <t>Descritivo dos Códigos dos Elementos</t>
+  </si>
+  <si>
+    <t>TEE-SYMETRICAL-MERGING-IDK4.1-7.21</t>
+  </si>
+  <si>
+    <t>TEE-SYMMETRICAL-DIVIDING-IDK4.1-7.29-2</t>
+  </si>
+  <si>
+    <t>TEE-SYMMETRICAL-MERGING-IDK4.1-7.29-1</t>
+  </si>
+  <si>
+    <t>TEE-NONSYMMETRICAL-MERGING-IDK4.1-7.21</t>
+  </si>
+  <si>
+    <t>TEE-NONSYMMETRICAL-DIVIDING-IDK4.1-7.4</t>
+  </si>
+  <si>
+    <t>Non Symmetrical Merging Tee based on the 7.4 diagram from the 4 edition of the book Handbook of Hydraulic Resistance</t>
   </si>
 </sst>
 </file>
@@ -171,7 +198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,8 +223,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4636A4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -241,12 +274,74 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color theme="0"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0"/>
+      </left>
+      <right style="hair">
+        <color theme="0"/>
+      </right>
+      <top style="hair">
+        <color theme="0"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0"/>
+      </left>
+      <right style="hair">
+        <color theme="0"/>
+      </right>
+      <top style="dotted">
+        <color theme="0"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0"/>
+      </left>
+      <right style="hair">
+        <color theme="0"/>
+      </right>
+      <top style="dotted">
+        <color theme="0"/>
+      </top>
+      <bottom style="dotted">
         <color theme="0"/>
       </bottom>
       <diagonal/>
@@ -255,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -277,35 +372,53 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -315,6 +428,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF4636A4"/>
       <color rgb="FF6B5BC9"/>
       <color rgb="FF2DCD62"/>
     </mruColors>
@@ -1027,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E35E04-D1D0-4B9C-8BFA-69EADE11D795}">
-  <dimension ref="C3:Q27"/>
+  <dimension ref="C3:AA29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B15" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,33 +1152,35 @@
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:17" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="C3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
+      <c r="C3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
     </row>
     <row r="4" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="C4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1072,20 +1188,23 @@
     </row>
     <row r="6" spans="3:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="2"/>
+      <c r="I6" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
     </row>
     <row r="7" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
@@ -1098,6 +1217,8 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
@@ -1109,11 +1230,11 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
     </row>
     <row r="9" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
@@ -1142,11 +1263,11 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
+      <c r="L10" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
@@ -1159,11 +1280,11 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L12" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
+      <c r="L12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
@@ -1175,28 +1296,29 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L14" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="16"/>
+      <c r="L14" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="24"/>
       <c r="N14" s="9"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="17" spans="3:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="12"/>
+    <row r="17" spans="3:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="3:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="18"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="3:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="20"/>
       <c r="E18" s="19" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -1206,77 +1328,195 @@
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
-    </row>
-    <row r="19" spans="3:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19" spans="3:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="3:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="12"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="3:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="3:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="17"/>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="3:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="20" t="s">
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="3:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+    </row>
+    <row r="23" spans="3:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+    </row>
+    <row r="24" spans="3:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+    </row>
+    <row r="25" spans="3:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+    </row>
+    <row r="26" spans="3:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="3:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-    </row>
-    <row r="23" spans="3:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="3:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="3:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="12" t="s">
+      <c r="D27" s="17"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="3:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="3:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-    </row>
-    <row r="27" spans="3:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+    </row>
+    <row r="29" spans="3:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:M22"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:M26"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L10:N10"/>
+  <mergeCells count="22">
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C3:O3"/>
-    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="E18:Q18"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="I22:Y22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:Q28"/>
+    <mergeCell ref="I25:Y25"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="I23:Y23"/>
+    <mergeCell ref="I24:Y24"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C23:H23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
